--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1967273.763853579</v>
+        <v>1965021.684142372</v>
       </c>
     </row>
     <row r="7">
@@ -662,16 +662,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>114.4918089738222</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -713,19 +713,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>322.0493598045916</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>137.383049730995</v>
+        <v>158.2598945289029</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>108.574821146562</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>82.99473116157577</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>66.23125412673322</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>67.07295908876635</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.2538703177676</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>201.66221878632</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>55.93898446134968</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>42.67804628306436</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819382</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>120.7871326503959</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>153.416474816415</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101226</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1658,7 +1658,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>18.49605685438683</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>121.8000472740333</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012336</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>10.63412424768254</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H22" t="n">
-        <v>55.52079624060473</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>93.07916359105459</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>161.51870580582</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520926</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>125.285163539206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.83025205764215</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444161</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340525</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>25.52471385612732</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>121.8000472740401</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016404</v>
       </c>
       <c r="T37" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695673</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>57.24347904696366</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605717069</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141674</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
-        <v>41.02686156550273</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4147,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>25.52471385612643</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.64725059288605</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.127034633561</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.164517693149</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D2" t="n">
         <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4328,25 +4328,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052369</v>
@@ -4361,19 +4361,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2684.035021879487</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2331.266366609373</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2331.266366609373</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1941.127034633561</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4419,40 +4419,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>553.2677753977071</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C4" t="n">
-        <v>384.3315924698002</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D4" t="n">
-        <v>234.2149530574645</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
@@ -4516,22 +4516,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1391.09371846696</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1101.676548429999</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>873.6869975319821</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y4" t="n">
-        <v>734.9162402279468</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1681.836054204828</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
         <v>1572.164517693149</v>
@@ -4550,10 +4550,10 @@
         <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.97538618064</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204828</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>718.3439163053883</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="C7" t="n">
-        <v>549.4077333774815</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>399.2910939651457</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1638.191681214136</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1348.774511177176</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>1120.784960279158</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y7" t="n">
-        <v>899.9923811356281</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>527.322087337517</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1884.185410428832</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1662.418794998358</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5121,22 +5121,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>244.2098454714573</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>739.5354516872161</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313768</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>917.5010142286964</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C13" t="n">
-        <v>917.5010142286964</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>767.3843748163606</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>619.4712812339675</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>472.5813337360571</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956953</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058936</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1099.149479058936</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,13 +5288,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,19 +5358,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>244.2098454714573</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L15" t="n">
-        <v>739.5354516872161</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
         <v>2516.421633107662</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.5007694647281</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C16" t="n">
-        <v>800.5007694647281</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D16" t="n">
-        <v>650.3841300523924</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>216.8470138298237</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>216.8470138298237</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647281</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368213</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>481.4479471244855</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>333.5348535420924</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>186.644906044182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>186.644906044182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,16 +5747,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961526</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>740.5562989961526</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1368.15426255076</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1920.063992790047</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2343.687142285115</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>296.7882229101294</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>149.8982754122191</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G22" t="n">
-        <v>149.8982754122191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273905</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397185</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>801.6918836311994</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>632.7557007032925</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>482.6390612909568</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>334.7259677085636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>187.8360202106533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>187.8360202106533</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.3403484614391</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961526</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>1337.934786622704</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1889.844516861991</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2313.46766635706</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>533.5582272005026</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>383.4415877881669</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.356899915409</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,19 +6534,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961526</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M30" t="n">
         <v>1307.627092998424</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.3099000622266</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3737171343197</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>597.2570777219839</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>449.3439841395908</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>302.4540366416804</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6628,43 +6628,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.958364892466</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168638</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436271</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,43 +6707,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>634.560372056552</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171314</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>564.5188827892246</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>414.4022433768888</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>266.4891497944957</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>119.5992022965853</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>119.5992022965853</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>119.5992022965853</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487569</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831766</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625879</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588919</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.896109690901</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473712</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M36" t="n">
-        <v>1465.200520057987</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.798483612594</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400767</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400767</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>363.7369613277409</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>363.7369613277409</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>216.8470138298306</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487573</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510514</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854712</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648825</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611864</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138465</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703164</v>
       </c>
     </row>
     <row r="38">
@@ -7163,22 +7163,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7187,16 +7187,16 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239597</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969303</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2526.197884723914</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723914</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>261.012762333092</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7339,7 +7339,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806535</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7397,25 +7397,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961526</v>
+        <v>671.2000270096652</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1268.578514636217</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>2517.442480416598</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2517.442480416598</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7576,7 +7576,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397185</v>
+        <v>740.5562989961527</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1337.934786622705</v>
       </c>
       <c r="N45" t="n">
-        <v>2149.810879820877</v>
+        <v>1965.532750177312</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171305</v>
+        <v>762.5477693179095</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892237</v>
+        <v>593.6115863900026</v>
       </c>
       <c r="D46" t="n">
-        <v>414.4022433768879</v>
+        <v>593.6115863900026</v>
       </c>
       <c r="E46" t="n">
-        <v>266.4891497944948</v>
+        <v>445.6984928076095</v>
       </c>
       <c r="F46" t="n">
-        <v>119.5992022965844</v>
+        <v>298.8085453096991</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>298.8085453096991</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518972</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7813,7 +7813,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570818</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588918</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473703</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-7.362248595147622e-13</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823192</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>12.10766347585385</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>127.9379057921823</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557219053</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>129.6605885985413</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H22" t="n">
-        <v>84.77391660561912</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>47.21554925516926</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>5.728115292807843</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>40.23897475306289</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944526</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788483</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>55.74112246243821</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>43.72409101822879</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0033420516642</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>146.8157004124953</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>127.7255247667956</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>139.9994244361419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>139.9994244361424</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>18.61858572567946</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>859702.8089747529</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>859702.8089747527</v>
+        <v>859702.8089747528</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>859702.8089747529</v>
+        <v>859702.8089747528</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>859702.8089747527</v>
+        <v>859702.8089747529</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="16">
@@ -26314,43 +26314,43 @@
         <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="F2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="H2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>565002.6197830049</v>
+      </c>
+      <c r="L2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="J2" t="n">
-        <v>565002.6197830049</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>565002.6197830047</v>
       </c>
-      <c r="L2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="N2" t="n">
-        <v>565002.619783005</v>
-      </c>
       <c r="O2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830047</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.310606189188547e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
-        <v>2.683391358004883e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26430,10 +26430,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683038</v>
+        <v>12996.86414683045</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683043</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
@@ -26445,13 +26445,13 @@
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683033</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683037</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
@@ -26497,10 +26497,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-954133.346302169</v>
       </c>
       <c r="C6" t="n">
-        <v>374611.3994254235</v>
+        <v>374611.3994254236</v>
       </c>
       <c r="D6" t="n">
         <v>374611.3994254235</v>
       </c>
       <c r="E6" t="n">
-        <v>125470.7640049117</v>
+        <v>125436.0260794763</v>
       </c>
       <c r="F6" t="n">
-        <v>450883.2258122671</v>
+        <v>450848.487886831</v>
       </c>
       <c r="G6" t="n">
-        <v>450883.225812267</v>
+        <v>450848.4878868314</v>
       </c>
       <c r="H6" t="n">
-        <v>450883.225812267</v>
+        <v>450848.4878868314</v>
       </c>
       <c r="I6" t="n">
-        <v>450883.2258122671</v>
+        <v>450848.4878868313</v>
       </c>
       <c r="J6" t="n">
-        <v>233352.0234149897</v>
+        <v>233317.2854895537</v>
       </c>
       <c r="K6" t="n">
-        <v>450883.2258122672</v>
+        <v>450848.4878868313</v>
       </c>
       <c r="L6" t="n">
-        <v>450883.225812267</v>
+        <v>450848.4878868313</v>
       </c>
       <c r="M6" t="n">
-        <v>365828.1978767551</v>
+        <v>365793.4599513197</v>
       </c>
       <c r="N6" t="n">
-        <v>450883.2258122672</v>
+        <v>450848.4878868314</v>
       </c>
       <c r="O6" t="n">
-        <v>450883.2258122671</v>
+        <v>450848.4878868314</v>
       </c>
       <c r="P6" t="n">
-        <v>450883.2258122672</v>
+        <v>450848.4878868315</v>
       </c>
     </row>
   </sheetData>
@@ -26790,10 +26790,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,19 +26811,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>240.1912326468607</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>5.70289866554333</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>81.20160362109982</v>
+        <v>60.3247588231919</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>256.6980706244455</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>26.19303062660006</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>101.0155669718946</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>79.36100355780282</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.4291713029153</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>168.0688818921491</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>92.67648855686267</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>147.0909790483775</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -29499,7 +29499,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29700,7 +29700,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29946,7 +29946,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30192,7 +30192,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>289.7537444526271</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,10 +32078,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>289.7537444526271</v>
+        <v>362.1804684129204</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32093,7 +32093,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32470,34 +32470,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
-        <v>314.4610577451602</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>150.2061940096322</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>344.9857809048113</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33214,7 +33214,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33263,22 +33263,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>270.9716933356895</v>
       </c>
       <c r="M30" t="n">
-        <v>714.9328157424943</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q30" t="n">
         <v>375.5996128485291</v>
@@ -33287,7 +33287,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33354,7 +33354,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>194.518932411124</v>
       </c>
       <c r="M33" t="n">
-        <v>714.932815742495</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>536.8001439125376</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475297</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817556</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33925,7 +33925,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,37 +33968,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>428.6149474293395</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>172.8142548092783</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34065,7 +34065,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162543</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34162,7 +34162,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,37 +34205,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>233.3139244897912</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q42" t="n">
-        <v>175.960367665998</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34302,7 +34302,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236488</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34399,7 +34399,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,34 +34445,34 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>277.2922978908101</v>
+        <v>699.0496615458081</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34539,7 +34539,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>151.9123054782681</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>151.9123054782681</v>
+        <v>224.3390294385614</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,7 +35741,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
-        <v>174.4792836591387</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>18.86448192629892</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>205.0040068187898</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>132.4173135558152</v>
       </c>
       <c r="M30" t="n">
-        <v>572.7987818204761</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -36996,10 +36996,10 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010465</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>55.96455263124987</v>
       </c>
       <c r="M33" t="n">
-        <v>572.7987818204766</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066261</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>394.6661099905193</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.0735788641963</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036775</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>290.0605676494653</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>27.13475084531435</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37710,7 +37710,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.079992146267</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>94.75954470991702</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.9785935799765</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37947,7 +37947,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902405</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>134.6960534463657</v>
+        <v>556.4534171013637</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38184,7 +38184,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060455</v>
